--- a/raw/Resultat.xlsx
+++ b/raw/Resultat.xlsx
@@ -434,6 +434,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView rightToLeft="0" workbookViewId="0"/>
+  </sheetViews>
   <cols>
     <col min="1" max="1" width="1.0008" customWidth="1"/>
     <col min="2" max="3" width="10.7163133333333" customWidth="1"/>

--- a/raw/Resultat.xlsx
+++ b/raw/Resultat.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
   <si>
     <t>VET - Résultat (code)</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>Réorienté</t>
+  </si>
+  <si>
+    <t>SCES</t>
+  </si>
+  <si>
+    <t>Sem.Césure</t>
   </si>
   <si>
     <t>SN</t>
@@ -433,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0"/>
   </sheetViews>
@@ -865,12 +871,12 @@
         <v>94</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B55" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>96</v>
@@ -900,7 +906,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="59" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B59" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
